--- a/www/IndicatorsPerCountry/Micronesia_FemalelifeExpectancyatBirth_TerritorialRef_1991_2012_CCode_583.xlsx
+++ b/www/IndicatorsPerCountry/Micronesia_FemalelifeExpectancyatBirth_TerritorialRef_1991_2012_CCode_583.xlsx
@@ -81,13 +81,13 @@
     <t>Ribeiro da Silva, Filipa (2015). Female life expectancy at Birth. http://hdl.handle.net/10622/G5L8IO, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_G5L8IO.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_G5L8IO.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_G5L8IO.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_G5L8IO.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_G5L8IO.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_G5L8IO.bib</t>
   </si>
 </sst>
 </file>
